--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd59b-Cd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd59b-Cd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cd59b</t>
+  </si>
+  <si>
+    <t>Cd2</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cd59b</t>
-  </si>
-  <si>
-    <t>Cd2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.321449</v>
+        <v>0.9998303333333333</v>
       </c>
       <c r="H2">
-        <v>3.964347</v>
+        <v>2.999491</v>
       </c>
       <c r="I2">
-        <v>0.2256636586315084</v>
+        <v>0.219406940419371</v>
       </c>
       <c r="J2">
-        <v>0.2256636586315084</v>
+        <v>0.219406940419371</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,104 +558,104 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7316486666666666</v>
+        <v>0.9383216666666666</v>
       </c>
       <c r="N2">
-        <v>2.194946</v>
+        <v>2.814965</v>
       </c>
       <c r="O2">
-        <v>0.6752690990488778</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.6752690990488778</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.9668363989179999</v>
+        <v>0.9381624647572221</v>
       </c>
       <c r="R2">
-        <v>8.701527590261998</v>
+        <v>8.443462182814999</v>
       </c>
       <c r="S2">
-        <v>0.1523836954521722</v>
+        <v>0.219406940419371</v>
       </c>
       <c r="T2">
-        <v>0.1523836954521722</v>
+        <v>0.219406940419371</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.321449</v>
+        <v>2.716738333333333</v>
       </c>
       <c r="H3">
-        <v>3.964347</v>
+        <v>8.150214999999999</v>
       </c>
       <c r="I3">
-        <v>0.2256636586315084</v>
+        <v>0.5961723962199132</v>
       </c>
       <c r="J3">
-        <v>0.2256636586315084</v>
+        <v>0.5961723962199132</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3518433333333333</v>
+        <v>0.9383216666666666</v>
       </c>
       <c r="N3">
-        <v>1.05553</v>
+        <v>2.814965</v>
       </c>
       <c r="O3">
-        <v>0.3247309009511223</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.3247309009511223</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.46494302099</v>
+        <v>2.549174440830555</v>
       </c>
       <c r="R3">
-        <v>4.184487188909999</v>
+        <v>22.942569967475</v>
       </c>
       <c r="S3">
-        <v>0.07327996317933622</v>
+        <v>0.5961723962199132</v>
       </c>
       <c r="T3">
-        <v>0.07327996317933622</v>
+        <v>0.5961723962199132</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.716738333333333</v>
+        <v>0.43014</v>
       </c>
       <c r="H4">
-        <v>8.150214999999999</v>
+        <v>1.29042</v>
       </c>
       <c r="I4">
-        <v>0.4639370205316031</v>
+        <v>0.09439171647988433</v>
       </c>
       <c r="J4">
-        <v>0.4639370205316031</v>
+        <v>0.09439171647988433</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,462 +682,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7316486666666666</v>
+        <v>0.9383216666666666</v>
       </c>
       <c r="N4">
-        <v>2.194946</v>
+        <v>2.814965</v>
       </c>
       <c r="O4">
-        <v>0.6752690990488778</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.6752690990488778</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.987697979265555</v>
+        <v>0.4036096816999999</v>
       </c>
       <c r="R4">
-        <v>17.88928181339</v>
+        <v>3.632487135299999</v>
       </c>
       <c r="S4">
-        <v>0.3132823338697963</v>
+        <v>0.09439171647988433</v>
       </c>
       <c r="T4">
-        <v>0.3132823338697963</v>
+        <v>0.09439171647988433</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.410259</v>
+      </c>
+      <c r="H5">
+        <v>1.230777</v>
+      </c>
+      <c r="I5">
+        <v>0.0900289468808315</v>
+      </c>
+      <c r="J5">
+        <v>0.09002894688083152</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.716738333333333</v>
-      </c>
-      <c r="H5">
-        <v>8.150214999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.4639370205316031</v>
-      </c>
-      <c r="J5">
-        <v>0.4639370205316031</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3518433333333333</v>
+        <v>0.9383216666666666</v>
       </c>
       <c r="N5">
-        <v>1.05553</v>
+        <v>2.814965</v>
       </c>
       <c r="O5">
-        <v>0.3247309009511223</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.3247309009511223</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.9558662709944444</v>
+        <v>0.384954908645</v>
       </c>
       <c r="R5">
-        <v>8.60279643895</v>
+        <v>3.464594177805</v>
       </c>
       <c r="S5">
-        <v>0.1506546866618068</v>
+        <v>0.0900289468808315</v>
       </c>
       <c r="T5">
-        <v>0.1506546866618068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.7355953333333334</v>
-      </c>
-      <c r="H6">
-        <v>2.206786</v>
-      </c>
-      <c r="I6">
-        <v>0.1256175109234363</v>
-      </c>
-      <c r="J6">
-        <v>0.1256175109234363</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.7316486666666666</v>
-      </c>
-      <c r="N6">
-        <v>2.194946</v>
-      </c>
-      <c r="O6">
-        <v>0.6752690990488778</v>
-      </c>
-      <c r="P6">
-        <v>0.6752690990488778</v>
-      </c>
-      <c r="Q6">
-        <v>0.5381973448395555</v>
-      </c>
-      <c r="R6">
-        <v>4.843776103556</v>
-      </c>
-      <c r="S6">
-        <v>0.08482562342603138</v>
-      </c>
-      <c r="T6">
-        <v>0.08482562342603138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.7355953333333334</v>
-      </c>
-      <c r="H7">
-        <v>2.206786</v>
-      </c>
-      <c r="I7">
-        <v>0.1256175109234363</v>
-      </c>
-      <c r="J7">
-        <v>0.1256175109234363</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.3518433333333333</v>
-      </c>
-      <c r="N7">
-        <v>1.05553</v>
-      </c>
-      <c r="O7">
-        <v>0.3247309009511223</v>
-      </c>
-      <c r="P7">
-        <v>0.3247309009511223</v>
-      </c>
-      <c r="Q7">
-        <v>0.2588143140644444</v>
-      </c>
-      <c r="R7">
-        <v>2.32932882658</v>
-      </c>
-      <c r="S7">
-        <v>0.04079188749740491</v>
-      </c>
-      <c r="T7">
-        <v>0.04079188749740491</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.4811443333333334</v>
-      </c>
-      <c r="H8">
-        <v>1.443433</v>
-      </c>
-      <c r="I8">
-        <v>0.08216494968009967</v>
-      </c>
-      <c r="J8">
-        <v>0.08216494968009967</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.7316486666666666</v>
-      </c>
-      <c r="N8">
-        <v>2.194946</v>
-      </c>
-      <c r="O8">
-        <v>0.6752690990488778</v>
-      </c>
-      <c r="P8">
-        <v>0.6752690990488778</v>
-      </c>
-      <c r="Q8">
-        <v>0.3520286099575556</v>
-      </c>
-      <c r="R8">
-        <v>3.168257489618</v>
-      </c>
-      <c r="S8">
-        <v>0.05548345154387729</v>
-      </c>
-      <c r="T8">
-        <v>0.05548345154387729</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.4811443333333334</v>
-      </c>
-      <c r="H9">
-        <v>1.443433</v>
-      </c>
-      <c r="I9">
-        <v>0.08216494968009967</v>
-      </c>
-      <c r="J9">
-        <v>0.08216494968009967</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.3518433333333333</v>
-      </c>
-      <c r="N9">
-        <v>1.05553</v>
-      </c>
-      <c r="O9">
-        <v>0.3247309009511223</v>
-      </c>
-      <c r="P9">
-        <v>0.3247309009511223</v>
-      </c>
-      <c r="Q9">
-        <v>0.1692874260544445</v>
-      </c>
-      <c r="R9">
-        <v>1.52358683449</v>
-      </c>
-      <c r="S9">
-        <v>0.02668149813622239</v>
-      </c>
-      <c r="T9">
-        <v>0.02668149813622239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.6009073333333333</v>
-      </c>
-      <c r="H10">
-        <v>1.802722</v>
-      </c>
-      <c r="I10">
-        <v>0.1026168602333525</v>
-      </c>
-      <c r="J10">
-        <v>0.1026168602333524</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.7316486666666666</v>
-      </c>
-      <c r="N10">
-        <v>2.194946</v>
-      </c>
-      <c r="O10">
-        <v>0.6752690990488778</v>
-      </c>
-      <c r="P10">
-        <v>0.6752690990488778</v>
-      </c>
-      <c r="Q10">
-        <v>0.4396530492235555</v>
-      </c>
-      <c r="R10">
-        <v>3.956877443012</v>
-      </c>
-      <c r="S10">
-        <v>0.06929399475700053</v>
-      </c>
-      <c r="T10">
-        <v>0.06929399475700052</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.6009073333333333</v>
-      </c>
-      <c r="H11">
-        <v>1.802722</v>
-      </c>
-      <c r="I11">
-        <v>0.1026168602333525</v>
-      </c>
-      <c r="J11">
-        <v>0.1026168602333524</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.3518433333333333</v>
-      </c>
-      <c r="N11">
-        <v>1.05553</v>
-      </c>
-      <c r="O11">
-        <v>0.3247309009511223</v>
-      </c>
-      <c r="P11">
-        <v>0.3247309009511223</v>
-      </c>
-      <c r="Q11">
-        <v>0.2114252391844444</v>
-      </c>
-      <c r="R11">
-        <v>1.90282715266</v>
-      </c>
-      <c r="S11">
-        <v>0.03332286547635194</v>
-      </c>
-      <c r="T11">
-        <v>0.03332286547635193</v>
+        <v>0.09002894688083152</v>
       </c>
     </row>
   </sheetData>
